--- a/MailBot/mailbot.xlsx
+++ b/MailBot/mailbot.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -29,13 +29,52 @@
   </si>
   <si>
     <t>Kwanchanok Komneyawanich</t>
+  </si>
+  <si>
+    <t>Samita Sunimit</t>
+  </si>
+  <si>
+    <t>Natee Treesoonrat</t>
+  </si>
+  <si>
+    <t>Naphat Chaisang</t>
+  </si>
+  <si>
+    <t>Nathawat Phaksiriset</t>
+  </si>
+  <si>
+    <t>Paul Hounnaklang</t>
+  </si>
+  <si>
+    <t>Thanwa Chokporntaveesuk</t>
+  </si>
+  <si>
+    <t>Thanapat Eurboonyanun</t>
+  </si>
+  <si>
+    <t>Kevin Mcmullin</t>
+  </si>
+  <si>
+    <t>Thanakann Upadhayawong</t>
+  </si>
+  <si>
+    <t>Phirun Khankhang</t>
+  </si>
+  <si>
+    <t>Lucksamon Laohawanich</t>
+  </si>
+  <si>
+    <t>Warinya Lohapongpan</t>
+  </si>
+  <si>
+    <t>Krittima Lualum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -54,6 +93,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -78,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -88,7 +134,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -323,7 +372,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -331,7 +380,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -339,11 +388,133 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink r:id="rId6" ref="B7"/>
+    <hyperlink r:id="rId7" ref="B8"/>
+    <hyperlink r:id="rId8" ref="B9"/>
+    <hyperlink r:id="rId9" ref="B10"/>
+    <hyperlink r:id="rId10" ref="B11"/>
+    <hyperlink r:id="rId11" ref="B12"/>
+    <hyperlink r:id="rId12" ref="B13"/>
+    <hyperlink r:id="rId13" ref="B14"/>
+    <hyperlink r:id="rId14" ref="B15"/>
+    <hyperlink r:id="rId15" ref="B16"/>
+    <hyperlink r:id="rId16" ref="B17"/>
+  </hyperlinks>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>